--- a/biology/Botanique/Clethraceae/Clethraceae.xlsx
+++ b/biology/Botanique/Clethraceae/Clethraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Clethraceae est une famille des plantes à fleurs dicotylédones de l'ordre des Ericales qui compte 120 espèces appartenant à 1 ou 2 genres. Additionnellement, le Angiosperm Phylogeny Website [27 avr 2007] accepte dans cette famille le genre Purdiaea, classé habituellement dans les  Cyrillaceae.
 Ce sont de petits arbres ou des arbustes originaires d'Asie, d'Amérique et de Macaronésie. Quelques-uns sont cultivés comme plantes d'ornement.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Clethra, qui vient du grec κλήθρα / klethra, « aune, aulne », en référence à la ressemblance des feuilles avec celles de l'arbre du genre Alnus (Betulaceae).
 </t>
@@ -544,11 +558,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015)[1], DELTA Angio           (12 nov. 2015)[2] et ITIS      (12 nov. 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2015), DELTA Angio           (12 nov. 2015) et ITIS      (12 nov. 2015) :
 genre Clethra L. (1753)
-Selon NCBI  (12 nov. 2015)[4] et Angiosperm Phylogeny Website                        (12 nov. 2015)[5] :
+Selon NCBI  (12 nov. 2015) et Angiosperm Phylogeny Website                        (12 nov. 2015) :
 genre Clethra
 genre Purdiaea (en)</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 juin 2010) :
 genre Clethra L. (1753)
 Clethra acuminata Michx. (1803)
 Clethra alcoceri Greenm. (1905)
@@ -661,7 +679,7 @@
 Clethra tuxtlensis L.M.González (2005 publ. 2006)
 Clethra uleana Sleumer (1967)
 Clethra vicentina Standl. (1923)
-Selon NCBI  (25 juin 2010)[7] :
+Selon NCBI  (25 juin 2010) :
 genre Clethra
 Clethra acuminata
 Clethra alnifolia
